--- a/Data/Fig8_Data.xlsx
+++ b/Data/Fig8_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Artem/Documents/GitHub/V.Andrei-NestRelocation/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F568EFE3-4D1C-1D4E-9EC1-B21EFFF5B031}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86AED9BD-9781-B04C-8F1F-42552504E97F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="940" windowWidth="22960" windowHeight="15020" xr2:uid="{B381B246-9917-6D44-ABE8-B7B1CC159C27}"/>
+    <workbookView xWindow="-100" yWindow="3900" windowWidth="22960" windowHeight="15020" xr2:uid="{B381B246-9917-6D44-ABE8-B7B1CC159C27}"/>
   </bookViews>
   <sheets>
     <sheet name="Sim+Empirical results" sheetId="2" r:id="rId1"/>
@@ -127,9 +127,6 @@
     <t>ACI</t>
   </si>
   <si>
-    <t>fina_num_stdev</t>
-  </si>
-  <si>
     <t>final_num_mean</t>
   </si>
   <si>
@@ -149,6 +146,9 @@
   </si>
   <si>
     <t>o = colonies from 2016; column H has exact colony number</t>
+  </si>
+  <si>
+    <t>final_num_stdev</t>
   </si>
 </sst>
 </file>
@@ -375,13 +375,7 @@
   <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -391,6 +385,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -412,6 +410,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -424,9 +425,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3499,7 +3499,7 @@
   <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3513,29 +3513,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="25" t="s">
-        <v>36</v>
+      <c r="H1" s="12" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -3657,12 +3657,12 @@
       <c r="G6" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="24"/>
+      <c r="I6" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="25"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -3688,11 +3688,11 @@
         <v>18</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="21"/>
+        <v>34</v>
+      </c>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="22"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -3718,7 +3718,7 @@
         <v>18</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
@@ -3748,7 +3748,7 @@
         <v>18</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
@@ -4184,7 +4184,7 @@
       <c r="G30" t="s">
         <v>27</v>
       </c>
-      <c r="H30" s="26">
+      <c r="H30" s="13">
         <v>40</v>
       </c>
     </row>
@@ -4208,7 +4208,7 @@
       <c r="G31" t="s">
         <v>27</v>
       </c>
-      <c r="H31" s="26" t="s">
+      <c r="H31" s="13" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4232,7 +4232,7 @@
       <c r="G32" t="s">
         <v>27</v>
       </c>
-      <c r="H32" s="26" t="s">
+      <c r="H32" s="13" t="s">
         <v>25</v>
       </c>
     </row>
@@ -4256,7 +4256,7 @@
       <c r="G33" t="s">
         <v>27</v>
       </c>
-      <c r="H33" s="26" t="s">
+      <c r="H33" s="13" t="s">
         <v>24</v>
       </c>
     </row>
@@ -4280,7 +4280,7 @@
       <c r="G34" t="s">
         <v>27</v>
       </c>
-      <c r="H34" s="26" t="s">
+      <c r="H34" s="13" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4304,7 +4304,7 @@
       <c r="G35" t="s">
         <v>27</v>
       </c>
-      <c r="H35" s="26" t="s">
+      <c r="H35" s="13" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4328,7 +4328,7 @@
       <c r="G36" t="s">
         <v>27</v>
       </c>
-      <c r="H36" s="26" t="s">
+      <c r="H36" s="13" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4352,7 +4352,7 @@
       <c r="G37" t="s">
         <v>27</v>
       </c>
-      <c r="H37" s="26" t="s">
+      <c r="H37" s="13" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4376,7 +4376,7 @@
       <c r="G38" t="s">
         <v>27</v>
       </c>
-      <c r="H38" s="26">
+      <c r="H38" s="13">
         <v>40</v>
       </c>
     </row>
@@ -4400,7 +4400,7 @@
       <c r="G39" t="s">
         <v>27</v>
       </c>
-      <c r="H39" s="26" t="s">
+      <c r="H39" s="13" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4424,7 +4424,7 @@
       <c r="G40" t="s">
         <v>27</v>
       </c>
-      <c r="H40" s="26" t="s">
+      <c r="H40" s="13" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4448,7 +4448,7 @@
       <c r="G41" t="s">
         <v>27</v>
       </c>
-      <c r="H41" s="26" t="s">
+      <c r="H41" s="13" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4472,7 +4472,7 @@
       <c r="G42" t="s">
         <v>27</v>
       </c>
-      <c r="H42" s="26">
+      <c r="H42" s="13">
         <v>40</v>
       </c>
     </row>
@@ -4496,7 +4496,7 @@
       <c r="G43" t="s">
         <v>27</v>
       </c>
-      <c r="H43" s="26" t="s">
+      <c r="H43" s="13" t="s">
         <v>25</v>
       </c>
     </row>
@@ -4520,7 +4520,7 @@
       <c r="G44" t="s">
         <v>27</v>
       </c>
-      <c r="H44" s="26" t="s">
+      <c r="H44" s="13" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4544,7 +4544,7 @@
       <c r="G45" t="s">
         <v>27</v>
       </c>
-      <c r="H45" s="26" t="s">
+      <c r="H45" s="13" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4568,7 +4568,7 @@
       <c r="G46" t="s">
         <v>27</v>
       </c>
-      <c r="H46" s="26" t="s">
+      <c r="H46" s="13" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4592,7 +4592,7 @@
       <c r="G47" t="s">
         <v>27</v>
       </c>
-      <c r="H47" s="26" t="s">
+      <c r="H47" s="13" t="s">
         <v>24</v>
       </c>
     </row>
@@ -4616,7 +4616,7 @@
       <c r="G48" t="s">
         <v>27</v>
       </c>
-      <c r="H48" s="26" t="s">
+      <c r="H48" s="13" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4640,7 +4640,7 @@
       <c r="G49" t="s">
         <v>27</v>
       </c>
-      <c r="H49" s="26" t="s">
+      <c r="H49" s="13" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4664,7 +4664,7 @@
       <c r="G50" t="s">
         <v>27</v>
       </c>
-      <c r="H50" s="26" t="s">
+      <c r="H50" s="13" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4695,28 +4695,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5"/>
-      <c r="O1" s="2" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="3"/>
+      <c r="O1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="2"/>
+      <c r="P1" s="26"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
       <c r="N2" t="s">
@@ -4733,17 +4733,17 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="5">
         <v>28</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="5">
         <f>B3/30*100</f>
         <v>93.333333333333329</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="6">
         <v>7.45</v>
       </c>
       <c r="N3" t="s">
@@ -4764,17 +4764,17 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="5">
         <v>11</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="5">
         <f t="shared" ref="C4:C7" si="0">B4/30*100</f>
         <v>36.666666666666664</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="6">
         <v>2.67</v>
       </c>
       <c r="N4" t="s">
@@ -4795,17 +4795,17 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="5">
         <v>4</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="5">
         <f t="shared" si="0"/>
         <v>13.333333333333334</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="6">
         <v>1.97</v>
       </c>
       <c r="N5" t="s">
@@ -4826,17 +4826,17 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="5">
         <v>28</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="5">
         <f>B6/30*100</f>
         <v>93.333333333333329</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="6">
         <v>4.24</v>
       </c>
       <c r="N6" t="s">
@@ -4857,17 +4857,17 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="9">
         <v>22</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="9">
         <f t="shared" si="0"/>
         <v>73.333333333333329</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="10">
         <v>3.08</v>
       </c>
       <c r="N7" t="s">
@@ -4888,43 +4888,43 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="2"/>
+      <c r="B10" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="O11" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="P11" s="2"/>
+      <c r="P11" s="26"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="5">
         <v>27</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="5">
         <f>B12/30*100</f>
         <v>90</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="6">
         <v>7.45</v>
       </c>
       <c r="N12" t="s">
@@ -4941,17 +4941,17 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="5">
         <v>13</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="5">
         <f t="shared" ref="C13:C14" si="2">B13/30*100</f>
         <v>43.333333333333336</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="6">
         <v>2.67</v>
       </c>
       <c r="N13" t="s">
@@ -4969,17 +4969,17 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="5">
         <v>5</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="5">
         <f t="shared" si="2"/>
         <v>16.666666666666664</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="6">
         <v>1.97</v>
       </c>
       <c r="N14" t="s">
@@ -4997,17 +4997,17 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="5">
         <v>27</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="5">
         <f>B15/30*100</f>
         <v>90</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="6">
         <v>4.24</v>
       </c>
       <c r="N15" t="s">
@@ -5025,17 +5025,17 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="9">
         <v>25</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="9">
         <f t="shared" ref="C16" si="4">B16/30*100</f>
         <v>83.333333333333343</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="10">
         <v>3.08</v>
       </c>
       <c r="N16" t="s">
@@ -5068,43 +5068,43 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4" t="s">
+      <c r="A19" s="2"/>
+      <c r="B19" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="5"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="O20" s="2" t="s">
+      <c r="O20" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="P20" s="2"/>
+      <c r="P20" s="26"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="5">
         <v>28</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="5">
         <f>B21/30*100</f>
         <v>93.333333333333329</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="6">
         <v>7.45</v>
       </c>
       <c r="N21" t="s">
@@ -5121,17 +5121,17 @@
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="5">
         <v>12</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="5">
         <f t="shared" ref="C22:C23" si="5">B22/30*100</f>
         <v>40</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="6">
         <v>2.67</v>
       </c>
       <c r="N22" t="s">
@@ -5149,17 +5149,17 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="5">
         <v>4</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="5">
         <f t="shared" si="5"/>
         <v>13.333333333333334</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="6">
         <v>1.97</v>
       </c>
       <c r="N23" t="s">
@@ -5177,17 +5177,17 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="5">
         <v>28</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="5">
         <f>B24/30*100</f>
         <v>93.333333333333329</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="6">
         <v>4.24</v>
       </c>
       <c r="N24" t="s">
@@ -5205,17 +5205,17 @@
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="9">
         <v>25</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="9">
         <f t="shared" ref="C25" si="7">B25/30*100</f>
         <v>83.333333333333343</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="10">
         <v>3.08</v>
       </c>
       <c r="N25" t="s">
@@ -5248,28 +5248,28 @@
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28" s="3"/>
-      <c r="B28" s="4" t="s">
+      <c r="A28" s="2"/>
+      <c r="B28" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="5"/>
-      <c r="O28" s="2" t="s">
+      <c r="C28" s="21"/>
+      <c r="D28" s="3"/>
+      <c r="O28" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="P28" s="2"/>
+      <c r="P28" s="26"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="10" t="s">
         <v>2</v>
       </c>
       <c r="N29" t="s">
@@ -5286,17 +5286,17 @@
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="5">
         <v>23</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="5">
         <f>B30/30*100</f>
         <v>76.666666666666671</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="6">
         <v>7.45</v>
       </c>
       <c r="N30" t="s">
@@ -5314,17 +5314,17 @@
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="5">
         <v>9</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="5">
         <f t="shared" ref="C31:C32" si="9">B31/30*100</f>
         <v>30</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="6">
         <v>2.67</v>
       </c>
       <c r="N31" t="s">
@@ -5342,17 +5342,17 @@
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="5">
         <v>4</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="5">
         <f t="shared" si="9"/>
         <v>13.333333333333334</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="6">
         <v>1.97</v>
       </c>
       <c r="N32" t="s">
@@ -5370,17 +5370,17 @@
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="5">
         <v>26</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="5">
         <f>B33/30*100</f>
         <v>86.666666666666671</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="6">
         <v>4.24</v>
       </c>
       <c r="N33" t="s">
@@ -5398,17 +5398,17 @@
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="11">
+      <c r="B34" s="9">
         <v>20</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="9">
         <f t="shared" ref="C34" si="11">B34/30*100</f>
         <v>66.666666666666657</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="10">
         <v>3.08</v>
       </c>
       <c r="N34" t="s">
